--- a/codigo/todosLosDatos.xlsx
+++ b/codigo/todosLosDatos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="13440" yWindow="435" windowWidth="6720" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="275">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -660,9 +660,6 @@
     <t>Libro,</t>
   </si>
   <si>
-    <t>EstadosUnidos Original</t>
-  </si>
-  <si>
     <t>Comedia</t>
   </si>
   <si>
@@ -768,9 +765,6 @@
     <t>HispanoFoxfilm,</t>
   </si>
   <si>
-    <t>91 UniversalPicturesInternational</t>
-  </si>
-  <si>
     <t>AContracorrienteFilms</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
     <t>CastelaoPictures</t>
   </si>
   <si>
-    <t>97,AContracorrienteFilms</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AurumProducciones</t>
   </si>
   <si>
@@ -795,12 +786,6 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>EEUU Original</t>
-  </si>
-  <si>
-    <t>EUU</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -853,6 +838,9 @@
   </si>
   <si>
     <t>Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEUU </t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1257,22 +1245,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2">
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H2" t="s">
         <v>208</v>
@@ -1289,22 +1277,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H3" t="s">
         <v>209</v>
@@ -1321,22 +1309,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
         <v>208</v>
@@ -1354,22 +1342,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="1">
         <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H5" t="s">
         <v>208</v>
@@ -1386,22 +1374,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6">
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H6" t="s">
         <v>210</v>
@@ -1418,22 +1406,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
         <v>210</v>
@@ -1450,22 +1438,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" t="s">
         <v>208</v>
@@ -1482,22 +1470,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9">
         <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
         <v>208</v>
@@ -1514,22 +1502,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10">
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
         <v>208</v>
@@ -1546,22 +1534,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11">
         <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H11" t="s">
         <v>208</v>
@@ -1578,22 +1566,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12">
         <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H12" t="s">
         <v>209</v>
@@ -1610,22 +1598,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13">
         <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
         <v>208</v>
@@ -1642,22 +1630,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14">
         <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
         <v>210</v>
@@ -1674,22 +1662,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E15">
         <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H15" t="s">
         <v>208</v>
@@ -1706,22 +1694,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16">
         <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
         <v>208</v>
@@ -1738,22 +1726,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17">
         <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H17" t="s">
         <v>208</v>
@@ -1770,22 +1758,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E18">
         <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
         <v>208</v>
@@ -1802,22 +1790,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s">
         <v>208</v>
@@ -1834,22 +1822,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20">
         <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H20" t="s">
         <v>208</v>
@@ -1866,22 +1854,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21">
         <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>208</v>
@@ -1898,22 +1886,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22">
         <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
         <v>211</v>
@@ -1930,22 +1918,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23">
         <v>80</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H23" t="s">
         <v>208</v>
@@ -1962,22 +1950,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24">
         <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H24" t="s">
         <v>212</v>
@@ -1994,22 +1982,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25">
         <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H25" t="s">
         <v>208</v>
@@ -2026,22 +2014,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26">
         <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H26" t="s">
         <v>209</v>
@@ -2058,22 +2046,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27">
         <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H27" t="s">
         <v>208</v>
@@ -2090,22 +2078,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28">
         <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H28" t="s">
         <v>209</v>
@@ -2122,22 +2110,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H29" t="s">
         <v>209</v>
@@ -2154,22 +2142,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30">
         <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H30" t="s">
         <v>213</v>
@@ -2186,22 +2174,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H31" t="s">
         <v>210</v>
@@ -2213,7 +2201,7 @@
         <v>3228081.87</v>
       </c>
       <c r="M31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2221,22 +2209,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E32">
         <v>132</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H32" t="s">
         <v>212</v>
@@ -2248,7 +2236,7 @@
         <v>9199992.0899999999</v>
       </c>
       <c r="M32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2256,22 +2244,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33">
         <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H33" t="s">
         <v>209</v>
@@ -2288,22 +2276,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34">
         <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H34" t="s">
         <v>208</v>
@@ -2320,25 +2308,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E35">
         <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I35">
         <v>357624</v>
@@ -2352,22 +2340,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36">
         <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H36" t="s">
         <v>208</v>
@@ -2384,22 +2372,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E37">
         <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H37" t="s">
         <v>208</v>
@@ -2416,22 +2404,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38">
         <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H38" t="s">
         <v>209</v>
@@ -2448,22 +2436,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39">
         <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H39" t="s">
         <v>208</v>
@@ -2480,22 +2468,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40">
         <v>91</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H40" t="s">
         <v>208</v>
@@ -2512,22 +2500,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E41">
         <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G41" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H41" t="s">
         <v>208</v>
@@ -2544,22 +2532,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E42">
         <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
@@ -2576,22 +2564,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E43">
         <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H43" t="s">
         <v>208</v>
@@ -2608,22 +2596,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E44">
         <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H44" t="s">
         <v>210</v>
@@ -2640,22 +2628,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45">
         <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s">
         <v>208</v>
@@ -2672,22 +2660,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E46">
         <v>104</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
         <v>209</v>
@@ -2704,22 +2692,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47">
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
         <v>208</v>
@@ -2736,22 +2724,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E48">
         <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G48" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H48" t="s">
         <v>208</v>
@@ -2768,22 +2756,22 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49">
         <v>123</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H49" t="s">
         <v>212</v>
@@ -2800,22 +2788,22 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E50">
         <v>114</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H50" t="s">
         <v>209</v>
@@ -2832,22 +2820,22 @@
         <v>48</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E51" s="1">
         <v>104</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>208</v>
@@ -2864,22 +2852,22 @@
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1">
         <v>99</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>208</v>
@@ -2896,22 +2884,22 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53">
         <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H53" t="s">
         <v>209</v>
@@ -2928,22 +2916,22 @@
         <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E54">
         <v>128</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H54" t="s">
         <v>208</v>
@@ -2960,22 +2948,22 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55">
         <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H55" t="s">
         <v>208</v>
@@ -2992,22 +2980,22 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E56">
         <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H56" t="s">
         <v>208</v>
@@ -3024,22 +3012,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57">
         <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H57" t="s">
         <v>209</v>
@@ -3057,22 +3045,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E58">
         <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
         <v>208</v>
@@ -3090,22 +3078,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59">
         <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H59" t="s">
         <v>212</v>
@@ -3123,22 +3111,22 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60">
         <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H60" t="s">
         <v>212</v>
@@ -3156,22 +3144,22 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H61" t="s">
         <v>208</v>
@@ -3189,22 +3177,22 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62">
         <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H62" t="s">
         <v>208</v>
@@ -3222,22 +3210,22 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63">
         <v>82</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G63" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H63" t="s">
         <v>208</v>
@@ -3255,22 +3243,22 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E64">
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H64" t="s">
         <v>208</v>
@@ -3288,22 +3276,22 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E65">
         <v>82</v>
       </c>
       <c r="F65" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H65" t="s">
         <v>208</v>
@@ -3321,22 +3309,22 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E66">
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H66" t="s">
         <v>208</v>
@@ -3354,22 +3342,22 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67">
         <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H67" t="s">
         <v>208</v>
@@ -3387,22 +3375,22 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E68">
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H68" t="s">
         <v>208</v>
@@ -3420,22 +3408,22 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E69">
         <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G69" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H69" t="s">
         <v>208</v>
@@ -3453,22 +3441,22 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70">
         <v>108</v>
       </c>
       <c r="F70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H70" t="s">
         <v>208</v>
@@ -3486,22 +3474,22 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E71">
         <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H71" t="s">
         <v>208</v>
@@ -3519,22 +3507,22 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E72">
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H72" t="s">
         <v>212</v>
@@ -3552,22 +3540,22 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73">
         <v>98</v>
       </c>
       <c r="F73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H73" t="s">
         <v>208</v>
@@ -3585,22 +3573,22 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74">
         <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H74" t="s">
         <v>208</v>
@@ -3618,22 +3606,22 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E75">
         <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H75" t="s">
         <v>208</v>
@@ -3651,22 +3639,22 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76">
         <v>103</v>
       </c>
       <c r="F76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H76" t="s">
         <v>208</v>
@@ -3684,22 +3672,22 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77">
         <v>113</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H77" t="s">
         <v>209</v>
@@ -3717,22 +3705,22 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E78">
         <v>107</v>
       </c>
       <c r="F78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H78" t="s">
         <v>208</v>
@@ -3750,22 +3738,22 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79">
         <v>121</v>
       </c>
       <c r="F79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H79" t="s">
         <v>208</v>
@@ -3783,22 +3771,22 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E80">
         <v>103</v>
       </c>
       <c r="F80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
         <v>208</v>
@@ -3816,22 +3804,22 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E81">
         <v>104</v>
       </c>
       <c r="F81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H81" t="s">
         <v>208</v>
@@ -3849,22 +3837,22 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E82">
         <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H82" t="s">
         <v>208</v>
@@ -3882,22 +3870,22 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E83">
         <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H83" t="s">
         <v>208</v>
@@ -3915,22 +3903,22 @@
         <v>85</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E84" s="1">
         <v>90</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>208</v>
@@ -3948,22 +3936,22 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E85">
         <v>74</v>
       </c>
       <c r="F85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G85" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H85" t="s">
         <v>208</v>
@@ -3981,22 +3969,22 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E86">
         <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H86" t="s">
         <v>208</v>
@@ -4014,22 +4002,22 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E87">
         <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H87" t="s">
         <v>208</v>
@@ -4047,22 +4035,22 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E88">
         <v>85</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H88" t="s">
         <v>208</v>
@@ -4080,22 +4068,22 @@
         <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E89" s="1">
         <v>122</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>209</v>
@@ -4113,22 +4101,22 @@
         <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E90" s="1">
         <v>108</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>212</v>
@@ -4146,22 +4134,22 @@
         <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E91" s="1">
         <v>121</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>208</v>
@@ -4179,22 +4167,22 @@
         <v>93</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E92" s="1">
         <v>99</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>208</v>
@@ -4212,22 +4200,22 @@
         <v>94</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="1">
         <v>78</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>208</v>
@@ -4245,22 +4233,22 @@
         <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E94" s="1">
         <v>98</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>208</v>
@@ -4278,22 +4266,22 @@
         <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E95" s="1">
         <v>97</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>208</v>
@@ -4311,22 +4299,22 @@
         <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E96" s="1">
         <v>121</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>208</v>
@@ -4344,22 +4332,22 @@
         <v>98</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E97" s="1">
         <v>73</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>208</v>
@@ -4377,22 +4365,22 @@
         <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E98" s="1">
         <v>121</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>208</v>
@@ -4410,22 +4398,22 @@
         <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" s="1">
         <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>208</v>
@@ -4443,22 +4431,22 @@
         <v>101</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E100" s="1">
         <v>106</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>208</v>
@@ -4476,22 +4464,22 @@
         <v>102</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E101" s="1">
         <v>94</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>208</v>
@@ -4509,22 +4497,22 @@
         <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E102" s="1">
         <v>88</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>208</v>
@@ -4542,22 +4530,22 @@
         <v>104</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E103" s="1">
         <v>98</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>208</v>
@@ -4575,22 +4563,22 @@
         <v>105</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E104" s="1">
         <v>124</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>208</v>
@@ -4608,22 +4596,22 @@
         <v>106</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E105" s="1">
         <v>119</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>208</v>
@@ -4641,22 +4629,22 @@
         <v>107</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E106" s="1">
         <v>125</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>208</v>
@@ -4674,22 +4662,22 @@
         <v>108</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="1">
         <v>103</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>208</v>
@@ -4707,22 +4695,22 @@
         <v>109</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E108" s="1">
         <v>93</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>208</v>
@@ -4740,22 +4728,22 @@
         <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E109" s="1">
         <v>106</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>208</v>
@@ -4773,22 +4761,22 @@
         <v>111</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E110" s="1">
         <v>77</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>208</v>
@@ -4806,22 +4794,22 @@
         <v>112</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E111" s="1">
         <v>95</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>208</v>
@@ -4839,22 +4827,22 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E112">
         <v>105</v>
       </c>
       <c r="F112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G112" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H112" t="s">
         <v>209</v>
@@ -4872,22 +4860,22 @@
         <v>114</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E113" s="1">
         <v>96</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>208</v>
@@ -4905,22 +4893,22 @@
         <v>115</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E114" s="1">
         <v>67</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>208</v>
@@ -4938,22 +4926,22 @@
         <v>116</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E115" s="1">
         <v>111</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>208</v>
@@ -4971,22 +4959,22 @@
         <v>117</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E116" s="1">
         <v>92</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>209</v>
@@ -5004,22 +4992,22 @@
         <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E117" s="1">
         <v>97</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>208</v>
@@ -5037,22 +5025,22 @@
         <v>119</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" s="1">
         <v>96</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>208</v>
@@ -5070,22 +5058,22 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E119">
         <v>101</v>
       </c>
       <c r="F119" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H119" t="s">
         <v>208</v>
@@ -5103,22 +5091,22 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E120">
         <v>93</v>
       </c>
       <c r="F120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G120" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H120" t="s">
         <v>208</v>
@@ -5136,22 +5124,22 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E121">
         <v>97</v>
       </c>
       <c r="F121" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G121" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H121" t="s">
         <v>208</v>
@@ -5169,22 +5157,22 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E122">
         <v>86</v>
       </c>
       <c r="F122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G122" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H122" t="s">
         <v>208</v>
@@ -5202,22 +5190,22 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123">
         <v>94</v>
       </c>
       <c r="F123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G123" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H123" t="s">
         <v>208</v>
@@ -5235,22 +5223,22 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D124" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E124">
         <v>125</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G124" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H124" t="s">
         <v>208</v>
@@ -5268,22 +5256,22 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E125">
         <v>97</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G125" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H125" t="s">
         <v>208</v>
@@ -5301,22 +5289,22 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E126">
         <v>95</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G126" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H126" t="s">
         <v>208</v>
@@ -5334,22 +5322,22 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E127">
         <v>109</v>
       </c>
       <c r="F127" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G127" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H127" t="s">
         <v>209</v>
@@ -5367,22 +5355,22 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E128">
         <v>107</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G128" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H128" t="s">
         <v>208</v>
@@ -5400,22 +5388,22 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D129" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E129">
         <v>113</v>
       </c>
       <c r="F129" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H129" t="s">
         <v>208</v>
@@ -5433,22 +5421,22 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E130">
         <v>93</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H130" t="s">
         <v>208</v>
@@ -5466,22 +5454,22 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D131" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E131">
         <v>104</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H131" t="s">
         <v>208</v>
@@ -5499,22 +5487,22 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E132">
         <v>116</v>
       </c>
       <c r="F132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H132" t="s">
         <v>208</v>
@@ -5532,22 +5520,22 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E133">
         <v>97</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H133" t="s">
         <v>208</v>
@@ -5565,22 +5553,22 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E134">
         <v>86</v>
       </c>
       <c r="F134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H134" t="s">
         <v>208</v>
@@ -5598,22 +5586,22 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E135">
         <v>121</v>
       </c>
       <c r="F135" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H135" t="s">
         <v>212</v>
@@ -5631,22 +5619,22 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E136">
         <v>115</v>
       </c>
       <c r="F136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H136" t="s">
         <v>208</v>
@@ -5664,22 +5652,22 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E137">
         <v>105</v>
       </c>
       <c r="F137" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H137" t="s">
         <v>208</v>
@@ -5697,22 +5685,22 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E138">
         <v>94</v>
       </c>
       <c r="F138" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G138" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H138" t="s">
         <v>208</v>
@@ -5730,22 +5718,22 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E139">
         <v>120</v>
       </c>
       <c r="F139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G139" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H139" t="s">
         <v>208</v>
@@ -5763,22 +5751,22 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E140">
         <v>137</v>
       </c>
       <c r="F140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H140" t="s">
         <v>209</v>
@@ -5796,22 +5784,22 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E141">
         <v>100</v>
       </c>
       <c r="F141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H141" t="s">
         <v>208</v>
@@ -5829,22 +5817,22 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E142">
         <v>78</v>
       </c>
       <c r="F142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H142" t="s">
         <v>208</v>
@@ -5862,22 +5850,22 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C143" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E143">
         <v>120</v>
       </c>
       <c r="F143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G143" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H143" t="s">
         <v>209</v>
@@ -5895,22 +5883,22 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D144" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E144">
         <v>91</v>
       </c>
       <c r="F144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G144" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H144" t="s">
         <v>208</v>
@@ -5928,22 +5916,22 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E145">
         <v>81</v>
       </c>
       <c r="F145" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G145" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H145" t="s">
         <v>208</v>
@@ -5961,22 +5949,22 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D146" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E146">
         <v>112</v>
       </c>
       <c r="F146" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G146" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H146" t="s">
         <v>208</v>
@@ -5994,22 +5982,22 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E147">
         <v>85</v>
       </c>
       <c r="F147" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G147" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H147" t="s">
         <v>208</v>
@@ -6027,22 +6015,22 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E148">
         <v>104</v>
       </c>
       <c r="F148" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G148" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H148" t="s">
         <v>208</v>
@@ -6060,22 +6048,22 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D149" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E149">
         <v>116</v>
       </c>
       <c r="F149" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G149" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H149" t="s">
         <v>209</v>
@@ -6093,22 +6081,22 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D150" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E150">
         <v>111</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G150" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H150" t="s">
         <v>208</v>
@@ -6126,22 +6114,22 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D151" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E151">
         <v>98</v>
       </c>
       <c r="F151" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G151" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H151" t="s">
         <v>208</v>
@@ -6159,22 +6147,22 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D152" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E152">
         <v>114</v>
       </c>
       <c r="F152" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G152" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H152" t="s">
         <v>208</v>
@@ -6192,22 +6180,22 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C153" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D153" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E153">
         <v>110</v>
       </c>
       <c r="F153" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G153" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H153" t="s">
         <v>212</v>
@@ -6225,22 +6213,22 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E154">
         <v>120</v>
       </c>
       <c r="F154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G154" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H154" t="s">
         <v>208</v>
@@ -6258,22 +6246,22 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D155" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E155">
         <v>93</v>
       </c>
       <c r="F155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G155" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H155" t="s">
         <v>208</v>
@@ -6291,22 +6279,22 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D156" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E156">
         <v>128</v>
       </c>
       <c r="F156" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H156" t="s">
         <v>209</v>
@@ -6324,22 +6312,22 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E157">
         <v>99</v>
       </c>
       <c r="F157" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G157" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H157" t="s">
         <v>208</v>
@@ -6357,22 +6345,22 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D158" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E158">
         <v>120</v>
       </c>
       <c r="F158" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G158" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H158" t="s">
         <v>208</v>
@@ -6390,22 +6378,22 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E159">
         <v>118</v>
       </c>
       <c r="F159" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G159" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H159" t="s">
         <v>209</v>
@@ -6423,22 +6411,22 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C160" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D160" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E160">
         <v>79</v>
       </c>
       <c r="F160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G160" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H160" t="s">
         <v>208</v>
@@ -6456,22 +6444,22 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E161">
         <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G161" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H161" t="s">
         <v>208</v>
@@ -6489,22 +6477,22 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C162" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E162">
         <v>88</v>
       </c>
       <c r="F162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G162" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H162" t="s">
         <v>208</v>
@@ -6522,22 +6510,22 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C163" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E163">
         <v>107</v>
       </c>
       <c r="F163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G163" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H163" t="s">
         <v>208</v>
@@ -6555,22 +6543,22 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C164" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D164" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E164">
         <v>98</v>
       </c>
       <c r="F164" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G164" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H164" t="s">
         <v>208</v>
@@ -6588,22 +6576,22 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C165" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E165">
         <v>92</v>
       </c>
       <c r="F165" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G165" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H165" t="s">
         <v>208</v>
@@ -6621,22 +6609,22 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D166" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E166">
         <v>94</v>
       </c>
       <c r="F166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G166" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H166" t="s">
         <v>208</v>
@@ -6654,22 +6642,22 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C167" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E167">
         <v>95</v>
       </c>
       <c r="F167" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G167" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H167" t="s">
         <v>208</v>
@@ -6687,22 +6675,22 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C168" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E168">
         <v>115</v>
       </c>
       <c r="F168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G168" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H168" t="s">
         <v>208</v>
@@ -6720,22 +6708,22 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C169" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E169">
         <v>98</v>
       </c>
       <c r="F169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G169" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H169" t="s">
         <v>208</v>
@@ -6753,22 +6741,22 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D170" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E170">
         <v>109</v>
       </c>
       <c r="F170" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G170" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H170" t="s">
         <v>212</v>
@@ -6786,22 +6774,22 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D171" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E171">
         <v>107</v>
       </c>
       <c r="F171" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G171" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H171" t="s">
         <v>209</v>
@@ -6819,22 +6807,22 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E172">
         <v>99</v>
       </c>
       <c r="F172" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G172" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H172" t="s">
         <v>208</v>
@@ -6852,22 +6840,22 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C173" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D173" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E173">
         <v>125</v>
       </c>
       <c r="F173" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G173" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H173" t="s">
         <v>208</v>
@@ -6885,22 +6873,22 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D174" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E174">
         <v>83</v>
       </c>
       <c r="F174" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G174" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H174" t="s">
         <v>208</v>
@@ -6918,22 +6906,22 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D175" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E175">
         <v>100</v>
       </c>
       <c r="F175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G175" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H175" t="s">
         <v>208</v>
@@ -6951,22 +6939,22 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C176" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E176">
         <v>108</v>
       </c>
       <c r="F176" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G176" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H176" t="s">
         <v>209</v>
@@ -6984,22 +6972,22 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C177" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D177" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E177">
         <v>79</v>
       </c>
       <c r="F177" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G177" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H177" t="s">
         <v>209</v>
@@ -7017,22 +7005,22 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D178" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E178">
         <v>149</v>
       </c>
       <c r="F178" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G178" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H178" t="s">
         <v>209</v>
@@ -7050,22 +7038,22 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D179" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E179">
         <v>128</v>
       </c>
       <c r="F179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G179" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H179" t="s">
         <v>212</v>
@@ -7083,22 +7071,22 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C180" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D180" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E180">
         <v>101</v>
       </c>
       <c r="F180" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G180" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H180" t="s">
         <v>208</v>
@@ -7116,22 +7104,22 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E181">
         <v>129</v>
       </c>
       <c r="F181" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G181" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H181" t="s">
         <v>210</v>
@@ -7149,22 +7137,22 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D182" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E182">
         <v>96</v>
       </c>
       <c r="F182" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G182" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H182" t="s">
         <v>208</v>
@@ -7182,22 +7170,22 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C183" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E183">
         <v>97</v>
       </c>
       <c r="F183" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G183" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H183" t="s">
         <v>208</v>
@@ -7215,22 +7203,22 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C184" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D184" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E184">
         <v>84</v>
       </c>
       <c r="F184" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G184" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H184" t="s">
         <v>212</v>
@@ -7248,22 +7236,22 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C185" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D185" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E185">
         <v>135</v>
       </c>
       <c r="F185" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G185" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H185" t="s">
         <v>212</v>
@@ -7281,22 +7269,22 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D186" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E186">
         <v>102</v>
       </c>
       <c r="F186" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G186" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H186" t="s">
         <v>208</v>
@@ -7314,22 +7302,22 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C187" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D187" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E187">
         <v>102</v>
       </c>
       <c r="F187" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G187" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H187" t="s">
         <v>212</v>
@@ -7347,22 +7335,22 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C188" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D188" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E188">
         <v>116</v>
       </c>
       <c r="F188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G188" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H188" t="s">
         <v>209</v>
@@ -7380,22 +7368,22 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C189" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D189" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E189">
         <v>118</v>
       </c>
       <c r="F189" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G189" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H189" t="s">
         <v>208</v>
@@ -7413,22 +7401,22 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E190">
         <v>133</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G190" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H190" t="s">
         <v>208</v>
@@ -7446,22 +7434,22 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D191" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E191">
         <v>88</v>
       </c>
       <c r="F191" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G191" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H191" t="s">
         <v>212</v>
@@ -7479,22 +7467,22 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D192" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E192">
         <v>103</v>
       </c>
       <c r="F192" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G192" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H192" t="s">
         <v>208</v>
@@ -7512,22 +7500,22 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C193" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E193">
         <v>113</v>
       </c>
       <c r="F193" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G193" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H193" t="s">
         <v>208</v>
@@ -7545,22 +7533,22 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E194">
         <v>106</v>
       </c>
       <c r="F194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G194" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H194" t="s">
         <v>208</v>
@@ -7578,22 +7566,22 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C195" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D195" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E195">
         <v>105</v>
       </c>
       <c r="F195" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G195" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H195" t="s">
         <v>208</v>
@@ -7611,22 +7599,22 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C196" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D196" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E196">
         <v>107</v>
       </c>
       <c r="F196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G196" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H196" t="s">
         <v>208</v>
@@ -7644,22 +7632,22 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C197" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D197" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E197">
         <v>120</v>
       </c>
       <c r="F197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G197" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H197" t="s">
         <v>208</v>
@@ -7677,22 +7665,22 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D198" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E198">
         <v>108</v>
       </c>
       <c r="F198" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G198" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H198" t="s">
         <v>208</v>
@@ -7710,22 +7698,22 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C199" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D199" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E199">
         <v>111</v>
       </c>
       <c r="F199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G199" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H199" t="s">
         <v>208</v>
@@ -7749,7 +7737,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="H206" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I206">
         <v>1360220.2</v>
@@ -7758,13 +7746,13 @@
         <v>5658444</v>
       </c>
       <c r="K206" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="G207" s="2"/>
       <c r="H207" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I207">
         <v>490350.25</v>
@@ -7776,7 +7764,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="H208" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I208">
         <v>124531.5</v>
@@ -7786,7 +7774,7 @@
         <v>490350.25</v>
       </c>
       <c r="L208" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M208">
         <f>MAX(I2:I199)</f>
@@ -7795,7 +7783,7 @@
     </row>
     <row r="209" spans="8:13">
       <c r="H209" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I209">
         <v>23206.75</v>
@@ -7805,7 +7793,7 @@
         <v>124531.5</v>
       </c>
       <c r="L209" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M209">
         <f>MIN(I2:I199)</f>
@@ -7814,7 +7802,7 @@
     </row>
     <row r="210" spans="8:13">
       <c r="H210" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -7831,40 +7819,38 @@
     </row>
     <row r="213" spans="8:13">
       <c r="H213" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I213">
-        <v>2916532.35</v>
+        <v>11431071.109999999</v>
       </c>
       <c r="J213">
-        <f>QUARTILE(K2:K199,4)</f>
         <v>64223727.68</v>
       </c>
     </row>
     <row r="214" spans="8:13">
       <c r="H214" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I214">
-        <v>1784414.2709999999</v>
+        <v>2916532.35</v>
       </c>
       <c r="J214">
-        <v>2916532.35</v>
+        <v>11431071.109999999</v>
       </c>
     </row>
     <row r="215" spans="8:13">
       <c r="H215" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I215">
         <v>716432.37</v>
       </c>
       <c r="J215">
-        <f>PERCENTILE(K2:K199,0.65)</f>
-        <v>1784414.2705000001</v>
+        <v>2916532.35</v>
       </c>
       <c r="L215" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M215">
         <f>MAX(K2:K199)</f>
@@ -7873,17 +7859,16 @@
     </row>
     <row r="216" spans="8:13">
       <c r="H216" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I216">
         <v>133281.25</v>
       </c>
       <c r="J216">
-        <f>QUARTILE(K2:K199,2)</f>
-        <v>716432.36499999999</v>
+        <v>716432.37</v>
       </c>
       <c r="L216" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M216">
         <f>MIN(K2:K199)</f>
@@ -7892,13 +7877,12 @@
     </row>
     <row r="217" spans="8:13">
       <c r="H217" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I217">
         <v>0</v>
       </c>
       <c r="J217">
-        <f>QUARTILE(K2:K199,1)</f>
         <v>133281.25</v>
       </c>
     </row>
